--- a/CourseWork3year/output.xlsx
+++ b/CourseWork3year/output.xlsx
@@ -92,12 +92,12 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Worksheet1!$B$2</c:f>
+              <c:f>Worksheet1!$B$2:$G$2</c:f>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Worksheet1!$B$3</c:f>
+              <c:f>Worksheet1!$B$3:$G$3</c:f>
               <c:numCache/>
             </c:numRef>
           </c:val>
@@ -114,12 +114,12 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Worksheet1!$B$2</c:f>
+              <c:f>Worksheet1!$B$2:$G$2</c:f>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Worksheet1!$B$4</c:f>
+              <c:f>Worksheet1!$B$4:$G$4</c:f>
               <c:numCache/>
             </c:numRef>
           </c:val>
@@ -136,12 +136,12 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Worksheet1!$B$2</c:f>
+              <c:f>Worksheet1!$B$2:$G$2</c:f>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Worksheet1!$B$5</c:f>
+              <c:f>Worksheet1!$B$5:$G$5</c:f>
               <c:numCache/>
             </c:numRef>
           </c:val>
@@ -241,12 +241,12 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Worksheet1!$B$18</c:f>
+              <c:f>Worksheet1!$B$18:$G$18</c:f>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Worksheet1!$B$19</c:f>
+              <c:f>Worksheet1!$B$19:$G$19</c:f>
               <c:numCache/>
             </c:numRef>
           </c:val>
@@ -263,12 +263,12 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Worksheet1!$B$18</c:f>
+              <c:f>Worksheet1!$B$18:$G$18</c:f>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Worksheet1!$B$20</c:f>
+              <c:f>Worksheet1!$B$20:$G$20</c:f>
               <c:numCache/>
             </c:numRef>
           </c:val>
@@ -285,12 +285,12 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Worksheet1!$B$18</c:f>
+              <c:f>Worksheet1!$B$18:$G$18</c:f>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Worksheet1!$B$21</c:f>
+              <c:f>Worksheet1!$B$21:$G$21</c:f>
               <c:numCache/>
             </c:numRef>
           </c:val>
@@ -375,13 +375,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
+      <xdr:col>18</xdr:col>
       <xdr:colOff>571500</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -405,13 +405,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
+      <xdr:col>18</xdr:col>
       <xdr:colOff>571500</xdr:colOff>
       <xdr:row>32</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -438,7 +438,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -459,6 +459,21 @@
       <c r="B2" s="0">
         <v>20</v>
       </c>
+      <c r="C2" s="0">
+        <v>50</v>
+      </c>
+      <c r="D2" s="0">
+        <v>70</v>
+      </c>
+      <c r="E2" s="0">
+        <v>100</v>
+      </c>
+      <c r="F2" s="0">
+        <v>150</v>
+      </c>
+      <c r="G2" s="0">
+        <v>230</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
@@ -467,6 +482,21 @@
       <c r="B3" s="0">
         <v>0</v>
       </c>
+      <c r="C3" s="0">
+        <v>2</v>
+      </c>
+      <c r="D3" s="0">
+        <v>7</v>
+      </c>
+      <c r="E3" s="0">
+        <v>27</v>
+      </c>
+      <c r="F3" s="0">
+        <v>51</v>
+      </c>
+      <c r="G3" s="0">
+        <v>147</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
@@ -475,6 +505,21 @@
       <c r="B4" s="0">
         <v>0</v>
       </c>
+      <c r="C4" s="0">
+        <v>1</v>
+      </c>
+      <c r="D4" s="0">
+        <v>3</v>
+      </c>
+      <c r="E4" s="0">
+        <v>11</v>
+      </c>
+      <c r="F4" s="0">
+        <v>21</v>
+      </c>
+      <c r="G4" s="0">
+        <v>68</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
@@ -483,6 +528,21 @@
       <c r="B5" s="0">
         <v>1</v>
       </c>
+      <c r="C5" s="0">
+        <v>0</v>
+      </c>
+      <c r="D5" s="0">
+        <v>1</v>
+      </c>
+      <c r="E5" s="0">
+        <v>2</v>
+      </c>
+      <c r="F5" s="0">
+        <v>1</v>
+      </c>
+      <c r="G5" s="0">
+        <v>2</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
@@ -496,13 +556,43 @@
       <c r="B18" s="0">
         <v>20</v>
       </c>
+      <c r="C18" s="0">
+        <v>50</v>
+      </c>
+      <c r="D18" s="0">
+        <v>70</v>
+      </c>
+      <c r="E18" s="0">
+        <v>100</v>
+      </c>
+      <c r="F18" s="0">
+        <v>150</v>
+      </c>
+      <c r="G18" s="0">
+        <v>230</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
         <v>2</v>
       </c>
       <c r="B19" s="0">
-        <v>27.75</v>
+        <v>26.55</v>
+      </c>
+      <c r="C19" s="0">
+        <v>26.85</v>
+      </c>
+      <c r="D19" s="0">
+        <v>28.5</v>
+      </c>
+      <c r="E19" s="0">
+        <v>31.75</v>
+      </c>
+      <c r="F19" s="0">
+        <v>29.5</v>
+      </c>
+      <c r="G19" s="0">
+        <v>28.45</v>
       </c>
     </row>
     <row r="20">
@@ -510,7 +600,22 @@
         <v>3</v>
       </c>
       <c r="B20" s="0">
-        <v>31.9</v>
+        <v>26.55</v>
+      </c>
+      <c r="C20" s="0">
+        <v>26.85</v>
+      </c>
+      <c r="D20" s="0">
+        <v>28.5</v>
+      </c>
+      <c r="E20" s="0">
+        <v>31.75</v>
+      </c>
+      <c r="F20" s="0">
+        <v>29.5</v>
+      </c>
+      <c r="G20" s="0">
+        <v>28.45</v>
       </c>
     </row>
     <row r="21">
@@ -518,7 +623,22 @@
         <v>4</v>
       </c>
       <c r="B21" s="0">
-        <v>41.55</v>
+        <v>43.25</v>
+      </c>
+      <c r="C21" s="0">
+        <v>52.6</v>
+      </c>
+      <c r="D21" s="0">
+        <v>53.95</v>
+      </c>
+      <c r="E21" s="0">
+        <v>55.7</v>
+      </c>
+      <c r="F21" s="0">
+        <v>57.3</v>
+      </c>
+      <c r="G21" s="0">
+        <v>58.15</v>
       </c>
     </row>
   </sheetData>
